--- a/cat-zson/src/main/resources/excel/cw.宠物装备.xlsx
+++ b/cat-zson/src/main/resources/excel/cw.宠物装备.xlsx
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="70">
   <si>
     <t>key</t>
   </si>
@@ -131,7 +131,7 @@
     <t>hiddenSkill</t>
   </si>
   <si>
-    <t>slot</t>
+    <t>category</t>
   </si>
   <si>
     <t>type</t>
@@ -182,10 +182,13 @@
     <t>初始属性</t>
   </si>
   <si>
+    <t>隐藏属性</t>
+  </si>
+  <si>
     <t>隐藏技能</t>
   </si>
   <si>
-    <t>槽位</t>
+    <t>装备类别</t>
   </si>
   <si>
     <t>remark</t>
@@ -212,10 +215,10 @@
   </si>
   <si>
     <t>装备槽位
-0:帽子
-1:衣服
-2:饰品
-3:项链</t>
+1:帽子
+2:衣服
+3:饰品
+4:项链</t>
   </si>
   <si>
     <t>true</t>
@@ -322,10 +325,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -346,6 +349,89 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -358,9 +444,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -372,72 +465,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -453,24 +480,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,14 +495,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -530,187 +533,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,24 +757,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -787,6 +772,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -798,6 +792,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,17 +854,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -859,145 +862,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1372,7 +1375,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B21"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1387,6 +1390,7 @@
     <col min="9" max="9" width="16.125" customWidth="1"/>
     <col min="10" max="10" width="16.75" customWidth="1"/>
     <col min="11" max="11" width="13.125" customWidth="1"/>
+    <col min="12" max="12" width="14.125"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:12">
@@ -1535,53 +1539,53 @@
         <v>28</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" ht="120" customHeight="1" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3">
         <v>700001</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1593,31 +1597,31 @@
         <v>2</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="3">
         <v>700002</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -1629,31 +1633,31 @@
         <v>2</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3">
         <v>700003</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1665,31 +1669,31 @@
         <v>2</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3">
         <v>700004</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -1701,31 +1705,31 @@
         <v>2</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3">
         <v>700005</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1737,31 +1741,31 @@
         <v>2</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="3">
         <v>700006</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1773,31 +1777,31 @@
         <v>2</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3">
         <v>700007</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -1809,31 +1813,31 @@
         <v>2</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3">
         <v>700008</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -1845,31 +1849,31 @@
         <v>2</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="3">
         <v>700009</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1881,31 +1885,31 @@
         <v>2</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L14" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3">
         <v>700010</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -1917,31 +1921,31 @@
         <v>2</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="3">
         <v>700011</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -1953,31 +1957,31 @@
         <v>2</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="3">
         <v>700012</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -1989,31 +1993,31 @@
         <v>2</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L17" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="3">
         <v>700013</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
@@ -2025,31 +2029,31 @@
         <v>2</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L18" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3">
         <v>700014</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
@@ -2061,31 +2065,31 @@
         <v>2</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L19" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="3">
         <v>700015</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -2097,31 +2101,31 @@
         <v>2</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L20" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3">
         <v>700016</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -2133,14 +2137,14 @@
         <v>2</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L21" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
